--- a/data/trans_dic/P16B12-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B12-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,49%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>83,88; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>95,34; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>88,62; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>86,99; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>85,98; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>91,92; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>93,52; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>92,47; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>96,76; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>96,86; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>97,58; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>90,33; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>97,51; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>97,1; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>94,79; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>98,6; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>98,67; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,26%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>82,09; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>90,85; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>93,56; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>96,46; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>91,66; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>96,15; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>96,27; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>89,82; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>97,61; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>97,45; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>84,95; 98,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>98,08; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>97,14; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>90,23; 98,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>98,93; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,36</t>
+          <t>98,64; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,35%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>95,48; 99,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>99,16; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>97,44; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>93,89; 99,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>97,6; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>97,64; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>95,76; 98,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>98,61; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>98,08; 99,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B12-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,27 +652,27 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,87%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>90,13; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>95,84; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>89,66; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>94,55; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>90,61; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>88,91; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,39; 100</t>
+          <t>93,32; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100</t>
+          <t>94,12; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>90,01; 100</t>
+          <t>93,1; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -752,37 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>83,88; 100,0</t>
+          <t>96,76; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,34; 100</t>
+          <t>96,86; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,62; 100,0</t>
+          <t>97,58; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,19; 100</t>
+          <t>90,33; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,99; 100,0</t>
+          <t>97,51; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,98; 100,0</t>
+          <t>97,1; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,92; 100,0</t>
+          <t>94,79; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,52; 100,0</t>
+          <t>98,6; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>92,47; 100,0</t>
+          <t>98,67; 100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -862,17 +862,17 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,26%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,76; 100</t>
+          <t>82,09; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96,86; 100</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,58; 100</t>
+          <t>90,85; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90,33; 100,0</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,51; 100</t>
+          <t>93,56; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>97,1; 100</t>
+          <t>96,46; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>94,79; 100,0</t>
+          <t>91,66; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>98,6; 100</t>
+          <t>96,15; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>98,67; 100</t>
+          <t>96,27; 100,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -972,17 +972,17 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -992,17 +992,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,09; 100,0</t>
+          <t>89,82; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,75; 100</t>
+          <t>97,61; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,85; 100,0</t>
+          <t>97,45; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,56; 100</t>
+          <t>84,95; 98,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,56; 100,0</t>
+          <t>98,08; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,46; 100</t>
+          <t>97,14; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,66; 100,0</t>
+          <t>90,23; 98,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,15; 100,0</t>
+          <t>98,93; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>96,27; 100,0</t>
+          <t>98,64; 100</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1082,37 +1082,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94,41%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,35%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,82; 100,0</t>
+          <t>95,48; 99,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>97,61; 100</t>
+          <t>99,16; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,45; 100</t>
+          <t>97,44; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>84,95; 98,46</t>
+          <t>93,89; 99,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>98,08; 100</t>
+          <t>97,6; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>97,14; 100</t>
+          <t>97,64; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,23; 98,15</t>
+          <t>95,76; 98,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,93; 100</t>
+          <t>98,61; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>98,64; 100</t>
+          <t>98,08; 99,83</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>97,99%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>99,18%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>97,48%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>99,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>99,52%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>97,72%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>99,63%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>99,35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>95,48; 99,45</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>99,16; 100</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>97,44; 100,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>93,89; 99,02</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>97,6; 100,0</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>97,64; 100,0</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>95,76; 98,89</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>98,61; 100,0</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>98,08; 99,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B12-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,13; 100,0</t>
+          <t>85,69; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,7 +696,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,66; 100,0</t>
+          <t>91,79; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,27 +706,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,61; 100,0</t>
+          <t>86,11; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,91; 100,0</t>
+          <t>89,88; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,32; 100,0</t>
+          <t>93,49; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>94,12; 100,0</t>
+          <t>94,75; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,1; 100,0</t>
+          <t>92,62; 100,0</t>
         </is>
       </c>
     </row>
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>90,33; 100,0</t>
+          <t>91,73; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,7 +826,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>94,79; 100,0</t>
+          <t>94,93; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,09; 100,0</t>
+          <t>83,61; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -915,7 +916,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,85; 100,0</t>
+          <t>92,83; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,7 +926,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,56; 100,0</t>
+          <t>92,61; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,17 +936,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,66; 100,0</t>
+          <t>92,42; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>96,15; 100,0</t>
+          <t>96,1; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>96,27; 100,0</t>
+          <t>95,84; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,82; 100,0</t>
+          <t>89,81; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1030,7 +1031,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,95; 98,46</t>
+          <t>86,76; 98,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1045,7 +1046,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,23; 98,15</t>
+          <t>90,01; 98,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>95,48; 99,45</t>
+          <t>95,15; 99,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1135,37 +1136,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,44; 100,0</t>
+          <t>97,13; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>93,89; 99,02</t>
+          <t>94,47; 99,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,6; 100,0</t>
+          <t>97,62; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>97,64; 100,0</t>
+          <t>97,63; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>95,76; 98,89</t>
+          <t>95,67; 98,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>98,61; 100,0</t>
+          <t>98,83; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>98,08; 99,83</t>
+          <t>98,05; 99,83</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la diabetes fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>42476</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>48629</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>64219</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33675</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>47466</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>56541</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>76151</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>96095</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>120759</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>37268; 43494</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46608; 48629</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>60167; 65548</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>31839; 33675</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>41849; 48597</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>51989; 57845</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>72147; 77169</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>92119; 97226</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>114284; 123393</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>59067</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>65570</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>77720</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>70154</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>82234</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>77529</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>129221</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>147804</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>155249</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>57151; 59067</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>63513; 65570</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>75836; 77720</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>66118; 72080</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>80188; 82234</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>75280; 77529</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>124497; 131147</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>145735; 147804</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>153181; 155249</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>30112</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>48637</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>67894</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40781</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>64986</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>60072</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>70893</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>113622</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>127966</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26009; 31108</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>46571; 48637</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>63915; 68849</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>38969; 40781</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>61006; 65872</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>57944; 60072</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>66438; 71889</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>110047; 114508</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>123554; 128921</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>47694</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>85369</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>68169</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>54478</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>103284</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>77889</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>102172</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>188652</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>146057</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>44330; 49360</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>83325; 85369</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>66428; 68169</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>50064; 56814</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>101304; 103284</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>75663; 77889</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>96363; 105333</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>186630; 188652</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>144070; 146057</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>179348</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>248204</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>278002</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>199089</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>297969</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>272031</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>378438</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>546173</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>550032</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>174150; 182029</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>246124; 248204</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>272229; 280286</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>192939; 202479</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>292854; 299986</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>266853; 273335</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>370497; 383218</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>541796; 548190</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>542808; 552666</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>